--- a/Villes interdites.xlsx
+++ b/Villes interdites.xlsx
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +586,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="60" customHeight="1"/>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="15"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="O1" s="12"/>
@@ -621,7 +624,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="7"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -644,7 +647,7 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="18"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="11"/>
@@ -663,7 +666,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="7"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -678,7 +681,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
       <c r="O5" s="12"/>
